--- a/RP_ModuleSet002.xlsx
+++ b/RP_ModuleSet002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFEE225-9BAF-491B-B5B7-E1A8397623AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE2AE25-7832-438B-9D74-260389BB5ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="6675" windowWidth="18645" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>コメント</t>
   </si>
@@ -346,31 +346,59 @@
     <t>LL05_TA01</t>
   </si>
   <si>
+    <t>LL02_EE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL02_TA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL02_EE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL02_TA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD01_y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD01_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD_TA01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD01_z_EE01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL03_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL03_y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL03_z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>LL05_EE</t>
-  </si>
-  <si>
-    <t>LL03_z</t>
-  </si>
-  <si>
-    <t>LL03_y</t>
-  </si>
-  <si>
-    <t>LL03_x</t>
-  </si>
-  <si>
-    <t>LL02_EE</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LL02_TA</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RL02_EE</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RL02_TA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD_TA02</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -563,7 +591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,12 +813,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -1075,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,12 +1144,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1514,29 +1530,29 @@
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
@@ -3319,122 +3335,274 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
+      <c r="A31" s="9">
+        <v>202</v>
+      </c>
+      <c r="B31" s="9">
+        <v>500</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>10</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0.5</v>
+      </c>
       <c r="T31" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="A32" s="10">
+        <v>500</v>
+      </c>
+      <c r="B32" s="10">
+        <v>501</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>10</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>1</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0.5</v>
+      </c>
       <c r="T32" s="10"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
+      <c r="A33" s="9">
+        <v>501</v>
+      </c>
+      <c r="B33" s="9">
+        <v>502</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>10.75</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0.5</v>
+      </c>
       <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
+      <c r="A34" s="10">
+        <v>1</v>
+      </c>
+      <c r="B34" s="10">
+        <v>950</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0.5</v>
+      </c>
       <c r="T34" s="10"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B35" s="9">
-        <v>600</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>74</v>
+        <v>951</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D35" s="9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="9">
-        <v>6</v>
+        <v>10.75</v>
       </c>
       <c r="F35" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="9">
         <v>0</v>
       </c>
       <c r="I35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -3458,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R35" s="9">
         <v>0.1</v>
@@ -3466,19 +3634,17 @@
       <c r="S35" s="9">
         <v>0.5</v>
       </c>
-      <c r="T35" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="T35" s="10"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
+        <v>102</v>
+      </c>
+      <c r="B36" s="10">
         <v>600</v>
       </c>
-      <c r="B36" s="10">
-        <v>601</v>
-      </c>
       <c r="C36" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10">
         <v>1.5</v>
@@ -3490,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
       </c>
       <c r="I36" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -3520,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="R36" s="10">
         <v>0.1</v>
@@ -3528,35 +3694,37 @@
       <c r="S36" s="10">
         <v>0.5</v>
       </c>
-      <c r="T36" s="10"/>
+      <c r="T36" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
+        <v>600</v>
+      </c>
+      <c r="B37" s="9">
         <v>601</v>
       </c>
-      <c r="B37" s="9">
-        <v>602</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>76</v>
+      <c r="C37" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D37" s="9">
         <v>1.5</v>
       </c>
       <c r="E37" s="9">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F37" s="9">
         <v>0</v>
       </c>
       <c r="G37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="9">
         <v>0</v>
       </c>
       <c r="I37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
@@ -3588,17 +3756,17 @@
       <c r="S37" s="9">
         <v>0.5</v>
       </c>
-      <c r="T37" s="9"/>
+      <c r="T37" s="10"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
         <v>601</v>
       </c>
       <c r="B38" s="10">
-        <v>610</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>93</v>
+        <v>602</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D38" s="10">
         <v>1.5</v>
@@ -3640,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R38" s="10">
         <v>0.1</v>
@@ -3648,26 +3816,26 @@
       <c r="S38" s="10">
         <v>0.5</v>
       </c>
-      <c r="T38" s="10"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
-        <v>1</v>
+        <v>601</v>
       </c>
       <c r="B39" s="9">
-        <v>961</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>94</v>
+        <v>610</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D39" s="9">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E39" s="9">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="F39" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -3708,26 +3876,26 @@
       <c r="S39" s="9">
         <v>0.5</v>
       </c>
-      <c r="T39" s="9"/>
+      <c r="T39" s="10"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" s="10">
-        <v>602</v>
+        <v>1</v>
       </c>
       <c r="B40" s="10">
-        <v>603</v>
+        <v>961</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D40" s="10">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E40" s="10">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="F40" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
@@ -3760,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R40" s="10">
         <v>0.1</v>
@@ -3768,17 +3936,17 @@
       <c r="S40" s="10">
         <v>0.5</v>
       </c>
-      <c r="T40" s="10"/>
+      <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
+        <v>602</v>
+      </c>
+      <c r="B41" s="9">
         <v>603</v>
       </c>
-      <c r="B41" s="9">
-        <v>604</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>78</v>
+      <c r="C41" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D41" s="9">
         <v>1.5</v>
@@ -3790,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="9">
         <v>0</v>
@@ -3828,17 +3996,17 @@
       <c r="S41" s="9">
         <v>0.5</v>
       </c>
-      <c r="T41" s="9"/>
+      <c r="T41" s="10"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" s="10">
+        <v>603</v>
+      </c>
+      <c r="B42" s="10">
         <v>604</v>
       </c>
-      <c r="B42" s="10">
-        <v>605</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>79</v>
+      <c r="C42" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="D42" s="10">
         <v>1.5</v>
@@ -3853,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -3888,35 +4056,35 @@
       <c r="S42" s="10">
         <v>0.5</v>
       </c>
-      <c r="T42" s="10"/>
+      <c r="T42" s="9"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
+        <v>604</v>
+      </c>
+      <c r="B43" s="9">
         <v>605</v>
       </c>
-      <c r="B43" s="9">
-        <v>606</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>80</v>
+      <c r="C43" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D43" s="9">
         <v>1.5</v>
       </c>
       <c r="E43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="9">
         <v>0</v>
       </c>
       <c r="G43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="9">
         <v>0</v>
       </c>
       <c r="I43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -3940,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="R43" s="9">
         <v>0.1</v>
@@ -3948,23 +4116,23 @@
       <c r="S43" s="9">
         <v>0.5</v>
       </c>
-      <c r="T43" s="9"/>
+      <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44" s="10">
-        <v>1</v>
+        <v>605</v>
       </c>
       <c r="B44" s="10">
-        <v>960</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>81</v>
+        <v>606</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D44" s="10">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="10">
         <v>0</v>
@@ -4000,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R44" s="10">
         <v>0.1</v>
@@ -4008,23 +4176,23 @@
       <c r="S44" s="10">
         <v>0.5</v>
       </c>
-      <c r="T44" s="10"/>
+      <c r="T44" s="9"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B45" s="9">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" s="9">
-        <v>-1.5</v>
+        <v>2.1</v>
       </c>
       <c r="E45" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -4060,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R45" s="9">
         <v>0.1</v>
@@ -4068,19 +4236,17 @@
       <c r="S45" s="9">
         <v>0.5</v>
       </c>
-      <c r="T45" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" s="10">
+        <v>102</v>
+      </c>
+      <c r="B46" s="10">
         <v>700</v>
       </c>
-      <c r="B46" s="10">
-        <v>701</v>
-      </c>
       <c r="C46" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="10">
         <v>-1.5</v>
@@ -4092,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="10">
         <v>0</v>
       </c>
       <c r="I46" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="10">
         <v>0</v>
@@ -4122,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R46" s="10">
         <v>0.1</v>
@@ -4130,35 +4296,37 @@
       <c r="S46" s="10">
         <v>0.5</v>
       </c>
-      <c r="T46" s="10"/>
+      <c r="T46" s="13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
+        <v>700</v>
+      </c>
+      <c r="B47" s="9">
         <v>701</v>
       </c>
-      <c r="B47" s="9">
-        <v>702</v>
-      </c>
       <c r="C47" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="9">
         <v>-1.5</v>
       </c>
       <c r="E47" s="9">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="9">
         <v>0</v>
       </c>
       <c r="I47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -4190,17 +4358,17 @@
       <c r="S47" s="9">
         <v>0.5</v>
       </c>
-      <c r="T47" s="9"/>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48" s="10">
         <v>701</v>
       </c>
       <c r="B48" s="10">
-        <v>710</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>91</v>
+        <v>702</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D48" s="10">
         <v>-1.5</v>
@@ -4250,26 +4418,26 @@
       <c r="S48" s="10">
         <v>0.5</v>
       </c>
-      <c r="T48" s="10"/>
+      <c r="T48" s="9"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="B49" s="9">
-        <v>971</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>92</v>
+        <v>710</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D49" s="9">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="E49" s="9">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="F49" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" s="9">
         <v>1</v>
@@ -4310,26 +4478,26 @@
       <c r="S49" s="9">
         <v>0.5</v>
       </c>
-      <c r="T49" s="9"/>
+      <c r="T49" s="10"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50" s="10">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="B50" s="10">
-        <v>703</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>90</v>
+        <v>971</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="D50" s="10">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="E50" s="10">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" s="10">
         <v>1</v>
@@ -4370,17 +4538,17 @@
       <c r="S50" s="10">
         <v>0.5</v>
       </c>
-      <c r="T50" s="10"/>
+      <c r="T50" s="9"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
+        <v>702</v>
+      </c>
+      <c r="B51" s="9">
         <v>703</v>
       </c>
-      <c r="B51" s="9">
-        <v>704</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>89</v>
+      <c r="C51" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="D51" s="9">
         <v>-1.5</v>
@@ -4392,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="9">
         <v>0</v>
@@ -4422,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R51" s="9">
         <v>0.1</v>
@@ -4430,17 +4598,17 @@
       <c r="S51" s="9">
         <v>0.5</v>
       </c>
-      <c r="T51" s="9"/>
+      <c r="T51" s="10"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52" s="10">
+        <v>703</v>
+      </c>
+      <c r="B52" s="10">
         <v>704</v>
       </c>
-      <c r="B52" s="10">
-        <v>705</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>88</v>
+      <c r="C52" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="D52" s="10">
         <v>-1.5</v>
@@ -4455,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I52" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="10">
         <v>0</v>
@@ -4482,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R52" s="10">
         <v>0.1</v>
@@ -4490,35 +4658,35 @@
       <c r="S52" s="10">
         <v>0.5</v>
       </c>
-      <c r="T52" s="10"/>
+      <c r="T52" s="9"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
+        <v>704</v>
+      </c>
+      <c r="B53" s="9">
         <v>705</v>
       </c>
-      <c r="B53" s="9">
-        <v>706</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>87</v>
+      <c r="C53" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D53" s="9">
         <v>-1.5</v>
       </c>
       <c r="E53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="9">
         <v>0</v>
       </c>
       <c r="G53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="9">
         <v>0</v>
       </c>
       <c r="I53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
@@ -4542,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R53" s="9">
         <v>0.1</v>
@@ -4550,23 +4718,23 @@
       <c r="S53" s="9">
         <v>0.5</v>
       </c>
-      <c r="T53" s="9"/>
+      <c r="T53" s="10"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54" s="10">
-        <v>1</v>
+        <v>705</v>
       </c>
       <c r="B54" s="10">
-        <v>970</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>86</v>
+        <v>706</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D54" s="10">
-        <v>-2.1</v>
+        <v>-1.5</v>
       </c>
       <c r="E54" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="10">
         <v>0</v>
@@ -4602,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="R54" s="10">
         <v>0.1</v>
@@ -4610,29 +4778,67 @@
       <c r="S54" s="10">
         <v>0.5</v>
       </c>
-      <c r="T54" s="10"/>
+      <c r="T54" s="9"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
+      <c r="A55" s="9">
+        <v>1</v>
+      </c>
+      <c r="B55" s="9">
+        <v>970</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="9">
+        <v>-2.1</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>1</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1</v>
+      </c>
+      <c r="O55" s="9">
+        <v>0</v>
+      </c>
+      <c r="P55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R55" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="T55" s="10"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
@@ -4654,7 +4860,7 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
+      <c r="T56" s="9"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57" s="9"/>
@@ -4676,7 +4882,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
+      <c r="T57" s="10"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
@@ -4698,7 +4904,7 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
+      <c r="T58" s="9"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59" s="9"/>
@@ -4720,12 +4926,12 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
+      <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -4742,12 +4948,12 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
+      <c r="T60" s="9"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -4764,12 +4970,12 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
+      <c r="T61" s="10"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -4786,7 +4992,7 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
+      <c r="T62" s="9"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63" s="9"/>
@@ -4808,7 +5014,7 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
+      <c r="T63" s="10"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
@@ -4830,12 +5036,12 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
+      <c r="T64" s="9"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -4852,425 +5058,447 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
+      <c r="T65" s="10"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/RP_ModuleSet002.xlsx
+++ b/RP_ModuleSet002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE2AE25-7832-438B-9D74-260389BB5ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F916EEF-6C1E-400E-8C87-5F5A4A2A9274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="6675" windowWidth="18645" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14385" yWindow="4830" windowWidth="18645" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP_ModuleSet002" sheetId="1" r:id="rId1"/>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/RP_ModuleSet002.xlsx
+++ b/RP_ModuleSet002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F916EEF-6C1E-400E-8C87-5F5A4A2A9274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297B392-45E7-4BB1-BC52-21DF1956DA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14385" yWindow="4830" windowWidth="18645" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP_ModuleSet002" sheetId="1" r:id="rId1"/>
@@ -20,214 +20,208 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>コメント</t>
   </si>
   <si>
+    <t>LowerBack: 100</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>BD01_y</t>
+  </si>
+  <si>
+    <t>Body: 200</t>
+  </si>
+  <si>
+    <t>BD01_x</t>
+  </si>
+  <si>
+    <t>BD01_z_EE01</t>
+  </si>
+  <si>
+    <t>BD01_z_TA01</t>
+  </si>
+  <si>
+    <t>RightArm: 300</t>
+  </si>
+  <si>
+    <t>RA03_y</t>
+  </si>
+  <si>
+    <t>RA03_x</t>
+  </si>
+  <si>
+    <t>RA03_z</t>
+  </si>
+  <si>
+    <t>RA04_EE</t>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>TA2</t>
+  </si>
+  <si>
+    <t>LeftArm: 400</t>
+  </si>
+  <si>
+    <t>LA02_x</t>
+  </si>
+  <si>
+    <t>LA02_y</t>
+  </si>
+  <si>
+    <t>LA03_y</t>
+  </si>
+  <si>
+    <t>LA03_x</t>
+  </si>
+  <si>
+    <t>アタッチモジュールID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>モジュールID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>位置ベクトル(絶対座標)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>回転軸ベクトル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>偏角(deg)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>front方向</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>right方向</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>座標表示</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>座標サイズ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>座標長さ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0: attachi_id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1: ID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2: name</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3:x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4:y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>5:z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>6:x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>7:y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>8:z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>9:deg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>10:x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11:y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>12:z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>13:x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>14:y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>15:z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>16:on/off</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>17:num</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>18:num</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LB01_y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>off</t>
-  </si>
-  <si>
-    <t>LowerBack: 100</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LB01_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LB01_z_EE01</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>on</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>BD01_y</t>
-  </si>
-  <si>
-    <t>Body: 200</t>
-  </si>
-  <si>
-    <t>BD01_x</t>
-  </si>
-  <si>
-    <t>BD01_z_EE01</t>
-  </si>
-  <si>
-    <t>BD01_z_TA01</t>
-  </si>
-  <si>
-    <t>RightArm: 300</t>
-  </si>
-  <si>
-    <t>RA03_y</t>
-  </si>
-  <si>
-    <t>RA03_x</t>
-  </si>
-  <si>
-    <t>RA03_z</t>
-  </si>
-  <si>
-    <t>RA04_EE</t>
-  </si>
-  <si>
-    <t>TA1</t>
-  </si>
-  <si>
-    <t>TA2</t>
-  </si>
-  <si>
-    <t>LeftArm: 400</t>
-  </si>
-  <si>
-    <t>LA02_x</t>
-  </si>
-  <si>
-    <t>LA02_y</t>
-  </si>
-  <si>
-    <t>LA03_y</t>
-  </si>
-  <si>
-    <t>LA03_x</t>
-  </si>
-  <si>
-    <t>アタッチモジュールID</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>モジュールID</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>位置ベクトル(絶対座標)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>回転軸ベクトル</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>偏角(deg)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>front方向</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>right方向</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>座標表示</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>座標サイズ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>座標長さ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0: attachi_id</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1: ID</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2: name</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>3:x</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>4:y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>5:z</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>6:x</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>7:y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>8:z</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>9:deg</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>10:x</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>11:y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>12:z</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>13:x</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>14:y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>15:z</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>16:on/off</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>17:num</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>18:num</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LB01_y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>off</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LB01_x</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LB01_z_EE01</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>on</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -299,10 +293,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>on</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>RL02_x</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -363,10 +353,6 @@
   </si>
   <si>
     <t>HD01_y</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>on</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1506,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1522,45 +1508,45 @@
   <sheetData>
     <row r="1" spans="1:20" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>0</v>
@@ -1568,61 +1554,61 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="T2" s="8"/>
     </row>
@@ -1634,7 +1620,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -1676,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R3" s="9">
         <v>0</v>
@@ -1685,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
@@ -1696,7 +1682,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -1738,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R4" s="10">
         <v>0</v>
@@ -1756,7 +1742,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -1798,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R5" s="9">
         <v>0.1</v>
@@ -1807,7 +1793,7 @@
         <v>0.5</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
@@ -1818,7 +1804,7 @@
         <v>910</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -1860,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R6" s="10">
         <v>0.1</v>
@@ -1869,7 +1855,7 @@
         <v>0.5</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
@@ -1880,7 +1866,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -1922,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
@@ -1931,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
@@ -1942,7 +1928,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -1984,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="R8" s="10">
         <v>0</v>
@@ -2002,7 +1988,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -2044,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R9" s="9">
         <v>0.1</v>
@@ -2053,7 +2039,7 @@
         <v>0.5</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -2064,7 +2050,7 @@
         <v>920</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -2106,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R10" s="10">
         <v>0.1</v>
@@ -2115,7 +2101,7 @@
         <v>0.5</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
@@ -2126,7 +2112,7 @@
         <v>300</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -2168,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R11" s="9">
         <v>0.1</v>
@@ -2177,7 +2163,7 @@
         <v>0.5</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
@@ -2188,7 +2174,7 @@
         <v>301</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -2230,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R12" s="10">
         <v>0.1</v>
@@ -2248,7 +2234,7 @@
         <v>302</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="9">
         <v>2</v>
@@ -2290,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R13" s="9">
         <v>0.1</v>
@@ -2308,7 +2294,7 @@
         <v>303</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
@@ -2350,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R14" s="10">
         <v>0.1</v>
@@ -2368,7 +2354,7 @@
         <v>304</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="9">
         <v>2</v>
@@ -2410,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R15" s="9">
         <v>0.1</v>
@@ -2428,7 +2414,7 @@
         <v>305</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
@@ -2470,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R16" s="10">
         <v>0.1</v>
@@ -2488,7 +2474,7 @@
         <v>306</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
@@ -2530,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R17" s="9">
         <v>0.1</v>
@@ -2548,7 +2534,7 @@
         <v>307</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10">
         <v>2</v>
@@ -2590,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="R18" s="10">
         <v>0.1</v>
@@ -2599,7 +2585,7 @@
         <v>100</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
@@ -2610,7 +2596,7 @@
         <v>930</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="9">
         <v>2</v>
@@ -2652,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R19" s="9">
         <v>1</v>
@@ -2661,7 +2647,7 @@
         <v>0.5</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
@@ -2672,7 +2658,7 @@
         <v>931</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="10">
         <v>3</v>
@@ -2714,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R20" s="10">
         <v>0.1</v>
@@ -2723,7 +2709,7 @@
         <v>0.5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
@@ -2734,7 +2720,7 @@
         <v>400</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="9">
         <v>-2</v>
@@ -2776,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R21" s="9">
         <v>0.1</v>
@@ -2785,7 +2771,7 @@
         <v>0.5</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
@@ -2796,7 +2782,7 @@
         <v>401</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="10">
         <v>-2</v>
@@ -2838,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R22" s="10">
         <v>0.1</v>
@@ -2856,7 +2842,7 @@
         <v>402</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="9">
         <v>-2</v>
@@ -2898,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R23" s="9">
         <v>0.1</v>
@@ -2916,7 +2902,7 @@
         <v>403</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="10">
         <v>-2</v>
@@ -2958,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R24" s="10">
         <v>0.1</v>
@@ -2976,7 +2962,7 @@
         <v>404</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="9">
         <v>-2</v>
@@ -3018,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R25" s="9">
         <v>0.1</v>
@@ -3036,7 +3022,7 @@
         <v>405</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="10">
         <v>-2</v>
@@ -3078,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R26" s="10">
         <v>0.1</v>
@@ -3096,7 +3082,7 @@
         <v>406</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="9">
         <v>-2</v>
@@ -3138,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R27" s="9">
         <v>0.1</v>
@@ -3156,7 +3142,7 @@
         <v>407</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="10">
         <v>-2</v>
@@ -3198,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R28" s="10">
         <v>0.1</v>
@@ -3207,7 +3193,7 @@
         <v>100</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
@@ -3218,7 +3204,7 @@
         <v>940</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="9">
         <v>-2</v>
@@ -3260,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R29" s="9">
         <v>1</v>
@@ -3269,7 +3255,7 @@
         <v>0.5</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
@@ -3280,7 +3266,7 @@
         <v>941</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="10">
         <v>-3</v>
@@ -3322,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R30" s="10">
         <v>0.1</v>
@@ -3331,7 +3317,7 @@
         <v>0.5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
@@ -3342,7 +3328,7 @@
         <v>500</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -3384,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R31" s="9">
         <v>0.1</v>
@@ -3393,7 +3379,7 @@
         <v>0.5</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
@@ -3404,7 +3390,7 @@
         <v>501</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -3446,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R32" s="10">
         <v>0.1</v>
@@ -3464,7 +3450,7 @@
         <v>502</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -3506,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R33" s="9">
         <v>0.1</v>
@@ -3524,7 +3510,7 @@
         <v>950</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -3566,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R34" s="10">
         <v>0.1</v>
@@ -3584,7 +3570,7 @@
         <v>951</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
@@ -3626,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R35" s="9">
         <v>0.1</v>
@@ -3644,7 +3630,7 @@
         <v>600</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="10">
         <v>1.5</v>
@@ -3686,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R36" s="10">
         <v>0.1</v>
@@ -3695,7 +3681,7 @@
         <v>0.5</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
@@ -3706,7 +3692,7 @@
         <v>601</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="9">
         <v>1.5</v>
@@ -3748,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R37" s="9">
         <v>0.1</v>
@@ -3766,7 +3752,7 @@
         <v>602</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D38" s="10">
         <v>1.5</v>
@@ -3808,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R38" s="10">
         <v>0.1</v>
@@ -3826,7 +3812,7 @@
         <v>610</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D39" s="9">
         <v>1.5</v>
@@ -3868,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R39" s="9">
         <v>0.1</v>
@@ -3886,7 +3872,7 @@
         <v>961</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" s="10">
         <v>1.7</v>
@@ -3928,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R40" s="10">
         <v>0.1</v>
@@ -3946,7 +3932,7 @@
         <v>603</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D41" s="9">
         <v>1.5</v>
@@ -3988,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="R41" s="9">
         <v>0.1</v>
@@ -4006,7 +3992,7 @@
         <v>604</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D42" s="10">
         <v>1.5</v>
@@ -4048,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="R42" s="10">
         <v>0.1</v>
@@ -4066,7 +4052,7 @@
         <v>605</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" s="9">
         <v>1.5</v>
@@ -4108,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R43" s="9">
         <v>0.1</v>
@@ -4126,7 +4112,7 @@
         <v>606</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" s="10">
         <v>1.5</v>
@@ -4168,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R44" s="10">
         <v>0.1</v>
@@ -4186,7 +4172,7 @@
         <v>960</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D45" s="9">
         <v>2.1</v>
@@ -4228,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R45" s="9">
         <v>0.1</v>
@@ -4246,7 +4232,7 @@
         <v>700</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D46" s="10">
         <v>-1.5</v>
@@ -4288,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R46" s="10">
         <v>0.1</v>
@@ -4297,7 +4283,7 @@
         <v>0.5</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.4">
@@ -4308,7 +4294,7 @@
         <v>701</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D47" s="9">
         <v>-1.5</v>
@@ -4350,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R47" s="9">
         <v>0.1</v>
@@ -4368,7 +4354,7 @@
         <v>702</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D48" s="10">
         <v>-1.5</v>
@@ -4410,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R48" s="10">
         <v>0.1</v>
@@ -4428,7 +4414,7 @@
         <v>710</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D49" s="9">
         <v>-1.5</v>
@@ -4470,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R49" s="9">
         <v>0.1</v>
@@ -4488,7 +4474,7 @@
         <v>971</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D50" s="10">
         <v>-1.7</v>
@@ -4530,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R50" s="10">
         <v>0.1</v>
@@ -4548,7 +4534,7 @@
         <v>703</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D51" s="9">
         <v>-1.5</v>
@@ -4590,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R51" s="9">
         <v>0.1</v>
@@ -4608,7 +4594,7 @@
         <v>704</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D52" s="10">
         <v>-1.5</v>
@@ -4650,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R52" s="10">
         <v>0.1</v>
@@ -4668,7 +4654,7 @@
         <v>705</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D53" s="9">
         <v>-1.5</v>
@@ -4710,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R53" s="9">
         <v>0.1</v>
@@ -4728,7 +4714,7 @@
         <v>706</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D54" s="10">
         <v>-1.5</v>
@@ -4770,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R54" s="10">
         <v>0.1</v>
@@ -4788,7 +4774,7 @@
         <v>970</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D55" s="9">
         <v>-2.1</v>
@@ -4830,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R55" s="9">
         <v>0.1</v>
